--- a/doc/01.ToDo/ToDo.xlsx
+++ b/doc/01.ToDo/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fframe\workspace\pony\doc\01.ToDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503A56A-6797-45D2-9351-250E2DB44815}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A14C5-2C80-4D82-A543-4A86F1F3A93F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2550" windowWidth="21600" windowHeight="12915" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,15 +103,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접수대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019.09.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dams.qry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qry-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반쿼리툴 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -593,7 +610,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -662,12 +679,14 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="16.5">
@@ -690,10 +709,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -702,15 +721,29 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
